--- a/spreadsheet/macrofree/virtualmachines_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/virtualmachines_sg_checklist.es.xlsx
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>(VMs) Implemente puntos de conexión de estado que emitan estados de mantenimiento de instancias en máquinas virtuales.  (Conjunto de escalas) Habilite las reparaciones automáticas en el conjunto de báscula especificando la acción de reparación preferida.  Considere la posibilidad de establecer un período de tiempo durante el cual las reparaciones automáticas se detengan si cambia el estado de la máquina virtual.</t>
+          <t>(Máquinas virtuales) Implemente puntos de conexión de estado que emitan estados de mantenimiento de instancia en máquinas virtuales.  (Conjunto de escalas) Habilite las reparaciones automáticas en el conjunto de báscula especificando la acción de reparación preferida.  Considere la posibilidad de establecer un período de tiempo durante el cual las reparaciones automáticas se detengan si cambia el estado de la máquina virtual.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Mantenga la disponibilidad incluso si se considera que una instancia está en mal estado. Las reparaciones automáticas inician la recuperación mediante el reemplazo de la instancia defectuosa. Establecer una ventana de tiempo puede evitar operaciones de reparación inadvertidas o prematuras.</t>
+          <t>Mantenga la disponibilidad incluso si una instancia se considera incorrecta. Las reparaciones automáticas inician la recuperación mediante la sustitución de la instancia defectuosa. Establecer una ventana de tiempo puede evitar operaciones de reparación inadvertidas o prematuras.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>El sobreaprovisionamiento reduce los tiempos de implementación y tiene un beneficio en cuanto a costos, ya que no se facturan las máquinas virtuales adicionales.</t>
+          <t>El sobreaprovisionamiento reduce los tiempos de implementación y tiene una ventaja en cuanto a costos, ya que no se facturan las máquinas virtuales adicionales.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Las instancias de máquina virtual se aprovisionan en ubicaciones físicamente separadas dentro de cada región de Azure que son tolerantes a errores locales.  Tenga en cuenta que, en función de la disponibilidad de recursos, puede haber un número impar de instancias en todas las zonas. El equilibrio de zona admite la disponibilidad al asegurarse de que, si una zona está inactiva, las otras zonas tengan suficientes instancias.  Dos instancias en cada zona proporcionan un búfer durante las actualizaciones.</t>
+          <t>Las instancias de máquina virtual se aprovisionan en ubicaciones físicamente separadas dentro de cada región de Azure que son tolerantes a errores locales.  Tenga en cuenta que, en función de la disponibilidad de recursos, puede haber un número impar de instancias en todas las zonas. El equilibrio de zonas admite la disponibilidad al asegurarse de que, si una zona está inactiva, las otras zonas tengan suficientes instancias.  Dos instancias en cada zona proporcionan un búfer durante las actualizaciones.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1231,7 +1231,7 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>(VMs) Aproveche la función de reservas de capacidad.</t>
+          <t>(Máquinas virtuales) Aproveche la función de reservas de capacidad.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
@@ -1265,7 +1265,7 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Asigne una identidad administrada a conjuntos de escalado. Todas las máquinas virtuales del conjunto de escalado obtienen la misma identidad a través del perfil de máquina virtual especificado.  (VMs) También puede asignar una identidad administrada a máquinas virtuales individuales al crearlas y, a continuación, agregarla a un conjunto de escalado si es necesario.</t>
+          <t>(Conjunto de escalas) Asigne una identidad administrada a conjuntos de escalado. Todas las máquinas virtuales del conjunto de escalado obtienen la misma identidad a través del perfil de máquina virtual especificado.  (Máquinas virtuales) También puede asignar una identidad administrada a máquinas virtuales individuales al crearlas y, a continuación, agregarla a un conjunto de escalado si es necesario.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Aplique las etiquetas recomendadas por la organización en los recursos aprovisionados.</t>
+          <t>(VM, conjunto de escalado) Aplique etiquetas recomendadas por la organización en los recursos aprovisionados.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>El etiquetado es una forma común de segmentar y organizar recursos y puede ser crucial durante la gestión de incidentes. Para obtener más información, consulte Propósito de la nomenclatura y el etiquetado.</t>
+          <t>El etiquetado es una forma común de segmentar y organizar los recursos, y puede ser crucial durante la gestión de incidentes. Para obtener más información, consulte Propósito de la nomenclatura y el etiquetado.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1367,7 +1367,7 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Establezca un perfil de seguridad con las características de seguridad que desea habilitar en la configuración de la máquina virtual.  Por ejemplo, cuando se especifica el cifrado en el host del perfil, los datos almacenados en el host de la máquina virtual se cifran en reposo y los flujos se cifran en el servicio de almacenamiento.</t>
+          <t>(VM, conjunto de escalado) Establezca un perfil de seguridad con las características de seguridad que desea habilitar en la configuración de la máquina virtual.  Por ejemplo, cuando se especifica el cifrado en el host en el perfil, los datos almacenados en el host de la máquina virtual se cifran en reposo y los flujos se cifran en el servicio de almacenamiento.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
@@ -1401,7 +1401,7 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>(VMs) Elija opciones de red seguras para el perfil de red de la máquina virtual.  No asocie directamente direcciones IP públicas a las máquinas virtuales y no habilite el reenvío de IP.  Asegúrese de que todas las interfaces de red virtual tengan un grupo de seguridad de red asociado.</t>
+          <t>(Máquinas virtuales) Elija opciones de red seguras para el perfil de red de la máquina virtual.  No asocie directamente direcciones IP públicas a las máquinas virtuales y no habilite el reenvío de IP.  Asegúrese de que todas las interfaces de red virtual tengan un grupo de seguridad de red asociado.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
@@ -1435,7 +1435,7 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>(VMs) Elija opciones de almacenamiento seguro para el perfil de almacenamiento de su máquina virtual.  Habilite el cifrado de disco y el cifrado de datos en reposo de forma predeterminada. Deshabilite el acceso de red pública a los discos de la máquina virtual.</t>
+          <t>(Máquinas virtuales) Elija opciones de almacenamiento seguro para el perfil de almacenamiento de su máquina virtual.  Habilite el cifrado de disco y el cifrado de datos en reposo de forma predeterminada. Deshabilite el acceso de red pública a los discos de la máquina virtual.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
@@ -1469,7 +1469,7 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Incluya extensiones en las máquinas virtuales que protejan contra las amenazas.  Por ejemplo, - Extensión de Key Vault para Windows y Linux - Autenticación de identificador de Microsoft Entra - Microsoft Antimalware para Azure Cloud Services y Virtual Machines - Extensión de Azure Disk Encryption para Windows y Linux.</t>
+          <t>(VM, conjunto de escalado) Incluya extensiones en las máquinas virtuales que protejan contra las amenazas.  Por ejemplo, - Extensión de Key Vault para Windows y Linux - Autenticación de identificador de Microsoft Entra - Microsoft Antimalware para Azure Cloud Services y Virtual Machines - Extensión de Azure Disk Encryption para Windows y Linux.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Elija el tamaño del plan de máquina virtual y la SKU adecuados. Identifique los mejores tamaños de máquina virtual para su carga de trabajo.  Utilice el selector de máquina virtual para identificar la mejor máquina virtual para su carga de trabajo. Consulta los precios de Windows y Linux.  En el caso de cargas de trabajo, como trabajos de procesamiento por lotes muy paralelos que pueden tolerar algunas interrupciones, considere la posibilidad de usar Azure Spot Virtual Machines. Las máquinas virtuales puntuales son buenas para experimentar, desarrollar y probar soluciones a gran escala.</t>
+          <t>(VM, conjunto de escalado) Elija el tamaño del plan de máquina virtual y la SKU adecuados. Identifique los mejores tamaños de máquina virtual para su carga de trabajo.  Utilice el selector de máquina virtual para identificar la mejor máquina virtual para su carga de trabajo. Consulta los precios de Windows y Linux.  En el caso de las cargas de trabajo, como los trabajos de procesamiento por lotes muy paralelos que pueden tolerar algunas interrupciones, considere la posibilidad de usar Azure Spot Virtual Machines. Las máquinas virtuales puntuales son buenas para experimentar, desarrollar y probar soluciones a gran escala.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Los SKU tienen un precio de acuerdo con las capacidades que ofrecen. Si no necesitas capacidades avanzadas, no gastes de más en SKU.  Las máquinas virtuales de acceso puntual aprovechan la capacidad excedente de Azure a un costo menor.</t>
+          <t>Los SKU tienen un precio según las capacidades que ofrecen. Si no necesitas capacidades avanzadas, no gastes de más en SKU.  Las máquinas virtuales de acceso puntual aprovechan la capacidad excedente de Azure a un costo menor.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Evalúe las opciones de disco asociadas a las SKU de la máquina virtual.  Determine sus necesidades de rendimiento teniendo en cuenta sus necesidades de capacidad de almacenamiento y teniendo en cuenta los patrones de carga de trabajo fluctuantes.  Por ejemplo, el disco SSD v2 de Azure Premium permite ajustar de forma granular el rendimiento independientemente del tamaño del disco.</t>
+          <t>(VM, conjunto de escalado) Evalúe las opciones de disco asociadas a las SKU de la máquina virtual.  Determine sus necesidades de rendimiento teniendo en cuenta sus necesidades de capacidad de almacenamiento y teniendo en cuenta los patrones de carga de trabajo fluctuantes.  Por ejemplo, el disco SSD prémium v2 de Azure permite ajustar de forma granular el rendimiento independientemente del tamaño del disco.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Algunos tipos de discos de alto rendimiento ofrecen funciones y estrategias de optimización de costos adicionales.  La capacidad de ajuste del disco SSD prémium v2 puede reducir los costos, ya que proporciona un alto rendimiento sin sobreaprovisionamiento, lo que de otro modo podría conducir a recursos infrautilizados.</t>
+          <t>Algunos tipos de discos de alto rendimiento ofrecen funciones y estrategias de optimización de costos adicionales.  La capacidad de ajuste del disco SSD prémium v2 puede reducir los costos, ya que proporciona un alto rendimiento sin sobreaprovisionamiento, lo que, de otro modo, podría conducir a recursos infrautilizados.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Reduzca los costos de infraestructura informática aplicando los grandes descuentos de las máquinas virtuales puntuales.</t>
+          <t>Reduzca los costos de infraestructura informática aplicando los grandes descuentos de las máquinas virtuales de acceso puntual.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1605,7 +1605,7 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Reduzca el número de instancias de VM cuando disminuya la demanda. Establezca una política de reducción horizontal basada en criterios.   Detenga las máquinas virtuales durante las horas de inactividad. Puede usar la característica Inicio/detención de Azure Automation y configurarla según las necesidades de su empresa.</t>
+          <t>(Conjunto de escalas) Reduzca el número de instancias de VM cuando la demanda disminuya. Establezca una política de reducción horizontal basada en criterios.   Detenga las máquinas virtuales durante las horas de inactividad. Puede usar la característica Iniciar/Detener de Azure Automation y configurarla según las necesidades de su empresa.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
@@ -1639,7 +1639,7 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Aproveche la movilidad de licencias mediante la Ventaja híbrida de Azure. Las máquinas virtuales tienen una opción de licencia que le permite traer sus propias licencias locales del SO de servidor Windows a Azure.  La Ventaja híbrida de Azure también le permite incorporar determinadas suscripciones de Linux a Azure.</t>
+          <t>(VM, conjunto de escalado) Aproveche la movilidad de licencias mediante la Ventaja híbrida de Azure. Las máquinas virtuales tienen una opción de licencia que le permite traer sus propias licencias locales del SO de servidor Windows a Azure.  La Ventaja híbrida de Azure también le permite incorporar determinadas suscripciones de Linux a Azure.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
@@ -1740,7 +1740,7 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Implemente automáticamente aplicaciones de máquina virtual desde Azure Compute Gallery definiendo las aplicaciones en el perfil.</t>
+          <t>(VM, conjunto de escalado) Implemente automáticamente aplicaciones de máquina virtual desde Azure Compute Gallery definiendo las aplicaciones en el perfil.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Supervise y mida el estado de las instancias de VM.  Implemente la extensión del agente Monitor en las máquinas virtuales para recopilar datos de supervisión del sistema operativo invitado con reglas de recopilación de datos específicas del sistema operativo.  Habilite la información de VM para supervisar el estado y el rendimiento, y para ver tendencias a partir de los datos recopilados. Use los diagnósticos de arranque para obtener información a medida que arrancan las máquinas virtuales. Los diagnósticos de arranque también diagnostican errores de arranque.</t>
+          <t>(VM, conjunto de escalado) Supervise y mida el estado de las instancias de VM.  Implemente la extensión del agente Monitor en las máquinas virtuales para recopilar datos de supervisión del sistema operativo invitado con reglas de recopilación de datos específicas del sistema operativo.  Permita que VM Insights supervise el estado y el rendimiento, y vea las tendencias de los datos recopilados. Use los diagnósticos de arranque para obtener información a medida que arrancan las máquinas virtuales. Los diagnósticos de arranque también diagnostican errores de arranque.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>La supervisión de los datos es el núcleo de la resolución de incidentes. Una pila de supervisión completa proporciona información sobre el rendimiento de las máquinas virtuales y su estado. Al monitorear continuamente las instancias, puede estar preparado para errores o prevenirlos, como la sobrecarga de rendimiento y los problemas de confiabilidad.</t>
+          <t>La monitorización de los datos es el núcleo de la resolución de incidentes. Una pila de supervisión completa proporciona información sobre el rendimiento de las máquinas virtuales y su estado. Al monitorear continuamente las instancias, puede estar preparado para errores o prevenirlos, como la sobrecarga de rendimiento y los problemas de confiabilidad.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Elija SKU para máquinas virtuales que se alineen con su planificación de capacidad. Comprenda bien los requisitos de su carga de trabajo, incluido el número de núcleos, la memoria, el almacenamiento y el ancho de banda de red para que pueda filtrar las SKU inadecuadas.</t>
+          <t>(VM, conjunto de escalado) Elija SKU para máquinas virtuales que se alineen con su planificación de capacidad. Comprenda bien los requisitos de su carga de trabajo, incluido el número de núcleos, la memoria, el almacenamiento y el ancho de banda de red para que pueda filtrar las SKU inadecuadas.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>El redimensionamiento de las máquinas virtuales es una decisión fundamental que afecta significativamente al rendimiento de la carga de trabajo. Sin el conjunto adecuado de máquinas virtuales, es posible que experimente problemas de rendimiento y acumule costos innecesarios.</t>
+          <t>El tamaño correcto de las máquinas virtuales es una decisión fundamental que afecta significativamente al rendimiento de la carga de trabajo. Sin el conjunto adecuado de máquinas virtuales, es posible que experimente problemas de rendimiento y acumule costos innecesarios.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1872,7 +1872,7 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Implemente máquinas virtuales de carga de trabajo sensibles a la latencia en grupos de selección de ubicación por proximidad.</t>
+          <t>(VM, conjunto de escalado) Implemente máquinas virtuales de carga de trabajo sensibles a la latencia en grupos con ubicación de proximidad.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
@@ -1906,7 +1906,7 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado)  Establezca el perfil de almacenamiento analizando el rendimiento del disco de las cargas de trabajo existentes y la SKU de la máquina virtual.  Use SSD prémium para máquinas virtuales de producción. Ajuste el rendimiento de los discos con SSD prémium v2. Utilice dispositivos NVMe conectados localmente.</t>
+          <t>(VM, conjunto de escalado)  Establezca el perfil de almacenamiento analizando el rendimiento del disco de las cargas de trabajo existentes y la SKU de la máquina virtual.  Use SSD prémium para máquinas virtuales de producción. Ajuste el rendimiento de los discos con SSD prémium v2. Utilice dispositivos NVMe conectados localmente.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
@@ -1940,12 +1940,12 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>(VMs) Considere la posibilidad de habilitar las redes aceleradas.</t>
+          <t>(Máquinas virtuales) Considere la posibilidad de habilitar redes aceleradas.</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Permite la virtualización de E/S de raíz única (SR-IOV) en una máquina virtual, lo que mejora en gran medida el rendimiento de su red.</t>
+          <t>Permite la virtualización de E/S de raíz única (SR-IOV) en una máquina virtual, lo que mejora en gran medida su rendimiento de red.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Establezca reglas de escalado automático para aumentar o disminuir el número de instancias de máquina virtual en el conjunto de escalado en función de la demanda.</t>
+          <t>(VM, conjunto de escalado) Establezca reglas de escalado automático para aumentar o disminuir el número de instancias de VM en el conjunto de escalado en función de la demanda.</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Si aumenta la demanda de la aplicación, aumenta la carga en las instancias de máquina virtual del conjunto de escalado. Las reglas de escalado automático garantizan que tenga suficientes recursos para satisfacer la demanda.</t>
+          <t>Si aumenta la demanda de la aplicación, aumenta la carga de las instancias de máquina virtual del conjunto de escalado. Las reglas de escalado automático garantizan que tenga suficientes recursos para satisfacer la demanda.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/spreadsheet/macrofree/virtualmachines_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/virtualmachines_sg_checklist.es.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Prepare su aplicación para el futuro para el escalado y aproveche las garantías de alta disponibilidad que distribuyen las máquinas virtuales a través de dominios de error en una región o una zona de disponibilidad.</t>
+          <t>Prepare su aplicación para el futuro para el escalado y aproveche las garantías de alta disponibilidad que distribuyen las máquinas virtuales entre dominios de error en una región o una zona de disponibilidad.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1095,7 +1095,7 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales) Implemente puntos de conexión de estado que emitan estados de mantenimiento de instancia en máquinas virtuales.  (Conjunto de escalas) Habilite las reparaciones automáticas en el conjunto de báscula especificando la acción de reparación preferida.  Considere la posibilidad de establecer un período de tiempo durante el cual las reparaciones automáticas se detengan si cambia el estado de la máquina virtual.</t>
+          <t>(Máquinas virtuales) Implemente puntos de conexión de estado que emitan estados de mantenimiento de instancias en máquinas virtuales.  (Conjunto de escalas) Habilite las reparaciones automáticas en el conjunto de básculas especificando la acción de reparación preferida.  Considere la posibilidad de establecer un período de tiempo durante el cual las reparaciones automáticas se detengan si cambia el estado de la máquina virtual.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>El sobreaprovisionamiento reduce los tiempos de implementación y tiene una ventaja en cuanto a costos, ya que no se facturan las máquinas virtuales adicionales.</t>
+          <t>El sobreaprovisionamiento reduce los tiempos de implementación y tiene una ventaja de costo, ya que no se facturan las máquinas virtuales adicionales.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Implemente en zonas de disponibilidad en conjuntos de escalado. Configure al menos dos instancias en cada zona. El equilibrio de zonas distribuye equitativamente las instancias entre zonas.</t>
+          <t>(Conjunto de escalas) Implementación en zonas de disponibilidad en conjuntos de escalado. Configure al menos dos instancias en cada zona. El equilibrio de zonas distribuye equitativamente las instancias entre zonas.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Las instancias de máquina virtual se aprovisionan en ubicaciones físicamente separadas dentro de cada región de Azure que son tolerantes a errores locales.  Tenga en cuenta que, en función de la disponibilidad de recursos, puede haber un número impar de instancias en todas las zonas. El equilibrio de zonas admite la disponibilidad al asegurarse de que, si una zona está inactiva, las otras zonas tengan suficientes instancias.  Dos instancias en cada zona proporcionan un búfer durante las actualizaciones.</t>
+          <t>Las instancias de máquina virtual se aprovisionan en ubicaciones físicamente separadas dentro de cada región de Azure que son tolerantes a errores locales.  Tenga en cuenta que, en función de la disponibilidad de recursos, puede haber un número impar de instancias en todas las zonas. El equilibrio de zona admite la disponibilidad al asegurarse de que, si una zona está inactiva, las otras zonas tengan suficientes instancias.  Dos instancias en cada zona proporcionan un búfer durante las actualizaciones.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1333,7 +1333,7 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Aplique etiquetas recomendadas por la organización en los recursos aprovisionados.</t>
+          <t>(VMs, conjunto de escalado) Aplique las etiquetas recomendadas por la organización en los recursos aprovisionados.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
@@ -1367,7 +1367,7 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Establezca un perfil de seguridad con las características de seguridad que desea habilitar en la configuración de la máquina virtual.  Por ejemplo, cuando se especifica el cifrado en el host en el perfil, los datos almacenados en el host de la máquina virtual se cifran en reposo y los flujos se cifran en el servicio de almacenamiento.</t>
+          <t>(VMs, conjunto de escalado) Establezca un perfil de seguridad con las características de seguridad que desea habilitar en la configuración de la máquina virtual.  Por ejemplo, cuando se especifica el cifrado en el host en el perfil, los datos almacenados en el host de la máquina virtual se cifran en reposo y los flujos se cifran en el servicio de almacenamiento.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
@@ -1469,7 +1469,7 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Incluya extensiones en las máquinas virtuales que protejan contra las amenazas.  Por ejemplo, - Extensión de Key Vault para Windows y Linux - Autenticación de identificador de Microsoft Entra - Microsoft Antimalware para Azure Cloud Services y Virtual Machines - Extensión de Azure Disk Encryption para Windows y Linux.</t>
+          <t>(VMs, conjunto de escalado) Incluya extensiones en las máquinas virtuales que protejan contra las amenazas.  Por ejemplo, - Extensión de Key Vault para Windows y Linux - Autenticación de identificador de Microsoft Entra - Microsoft Antimalware para Azure Cloud Services y Virtual Machines - Extensión de Azure Disk Encryption para Windows y Linux.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Elija el tamaño del plan de máquina virtual y la SKU adecuados. Identifique los mejores tamaños de máquina virtual para su carga de trabajo.  Utilice el selector de máquina virtual para identificar la mejor máquina virtual para su carga de trabajo. Consulta los precios de Windows y Linux.  En el caso de las cargas de trabajo, como los trabajos de procesamiento por lotes muy paralelos que pueden tolerar algunas interrupciones, considere la posibilidad de usar Azure Spot Virtual Machines. Las máquinas virtuales puntuales son buenas para experimentar, desarrollar y probar soluciones a gran escala.</t>
+          <t>(VMs, conjunto de escalado) Elija el tamaño del plan de máquina virtual y la SKU adecuados. Identifique los mejores tamaños de máquina virtual para su carga de trabajo.  Use el selector de máquina virtual para identificar la mejor máquina virtual para su carga de trabajo. Consulta los precios de Windows y Linux.  En el caso de cargas de trabajo, como trabajos de procesamiento por lotes muy paralelos que pueden tolerar algunas interrupciones, considere la posibilidad de usar Azure Spot Virtual Machines. Las máquinas virtuales puntuales son buenas para experimentar, desarrollar y probar soluciones a gran escala.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Los SKU tienen un precio según las capacidades que ofrecen. Si no necesitas capacidades avanzadas, no gastes de más en SKU.  Las máquinas virtuales de acceso puntual aprovechan la capacidad excedente de Azure a un costo menor.</t>
+          <t>Los SKU tienen un precio de acuerdo con las capacidades que ofrecen. Si no necesitas capacidades avanzadas, no gastes de más en SKU.  Las máquinas virtuales de acceso puntual aprovechan la capacidad excedente de Azure a un costo menor.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Evalúe las opciones de disco asociadas a las SKU de la máquina virtual.  Determine sus necesidades de rendimiento teniendo en cuenta sus necesidades de capacidad de almacenamiento y teniendo en cuenta los patrones de carga de trabajo fluctuantes.  Por ejemplo, el disco SSD prémium v2 de Azure permite ajustar de forma granular el rendimiento independientemente del tamaño del disco.</t>
+          <t>(VMs, conjunto de escalado) Evalúe las opciones de disco asociadas a las SKU de la máquina virtual.  Determine sus necesidades de rendimiento teniendo en cuenta sus necesidades de capacidad de almacenamiento y teniendo en cuenta los patrones de carga de trabajo fluctuantes.  Por ejemplo, el disco SSD prémium v2 de Azure permite ajustar de forma granular el rendimiento independientemente del tamaño del disco.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Algunos tipos de discos de alto rendimiento ofrecen funciones y estrategias de optimización de costos adicionales.  La capacidad de ajuste del disco SSD prémium v2 puede reducir los costos, ya que proporciona un alto rendimiento sin sobreaprovisionamiento, lo que, de otro modo, podría conducir a recursos infrautilizados.</t>
+          <t>Algunos tipos de discos de alto rendimiento ofrecen funciones y estrategias de optimización de costos adicionales.  La capacidad de ajuste del disco SSD prémium v2 puede reducir los costos, ya que proporciona un alto rendimiento sin sobreaprovisionamiento, lo que, de otro modo, podría dar lugar a recursos infrautilizados.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Combine máquinas virtuales normales con máquinas virtuales de acceso puntual.  La orquestación flexible le permite distribuir máquinas virtuales de acceso puntual en función de un porcentaje especificado.</t>
+          <t>(Conjunto de escalas) Mezcle máquinas virtuales normales con máquinas virtuales de acceso puntual.  La orquestación flexible le permite distribuir máquinas virtuales de acceso puntual en función de un porcentaje especificado.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Reduzca los costos de infraestructura informática aplicando los grandes descuentos de las máquinas virtuales de acceso puntual.</t>
+          <t>Reduzca los costos de infraestructura informática aplicando los grandes descuentos de las máquinas virtuales puntuales.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1605,7 +1605,7 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Reduzca el número de instancias de VM cuando la demanda disminuya. Establezca una política de reducción horizontal basada en criterios.   Detenga las máquinas virtuales durante las horas de inactividad. Puede usar la característica Iniciar/Detener de Azure Automation y configurarla según las necesidades de su empresa.</t>
+          <t>(Conjunto de escalas) Reduzca el número de instancias de VM cuando la demanda disminuye. Establezca una política de reducción horizontal basada en criterios.   Detenga las máquinas virtuales durante las horas de inactividad. Puede usar la característica Iniciar/Detener de Azure Automation y configurarla según las necesidades de su empresa.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
@@ -1639,7 +1639,7 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Aproveche la movilidad de licencias mediante la Ventaja híbrida de Azure. Las máquinas virtuales tienen una opción de licencia que le permite traer sus propias licencias locales del SO de servidor Windows a Azure.  La Ventaja híbrida de Azure también le permite incorporar determinadas suscripciones de Linux a Azure.</t>
+          <t>(VMs, conjunto de escalado) Aproveche la movilidad de licencias mediante la Ventaja híbrida de Azure. Las máquinas virtuales tienen una opción de licencia que le permite traer sus propias licencias locales del SO de servidor Windows a Azure.  La Ventaja híbrida de Azure también le permite incorporar determinadas suscripciones de Linux a Azure.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>La orquestación flexible puede administrar instancias de VM a escala. La entrega de máquinas virtuales individuales agrega sobrecarga operativa.  Por ejemplo, cuando se eliminan instancias de VM, los discos y las NIC asociados también se eliminan automáticamente. Las instancias de VM se distribuyen en varios dominios de error para que las operaciones de actualización no interrumpan el servicio.</t>
+          <t>La orquestación flexible puede administrar instancias de VM a escala. La entrega de máquinas virtuales individuales agrega una sobrecarga operativa.  Por ejemplo, cuando se eliminan instancias de VM, los discos y las NIC asociados también se eliminan automáticamente. Las instancias de VM se distribuyen en varios dominios de error para que las operaciones de actualización no interrumpan el servicio.</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Mantenga sus máquinas virtuales actualizadas mediante la configuración de una directiva de actualización. Recomendamos actualizaciones continuas. Sin embargo, si necesita un control granular, elija actualizar manualmente.  Para la orquestación flexible, puede usar Azure Update Manager.</t>
+          <t>(Conjunto de escalas) Mantenga sus máquinas virtuales actualizadas mediante la configuración de una directiva de actualización. Recomendamos actualizaciones continuas. Sin embargo, si necesita un control granular, elija actualizar manualmente.  En el caso de la orquestación flexible, puede usar Azure Update Manager.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>La seguridad es la razón principal de las actualizaciones. Las garantías de seguridad de las instancias no deben deteriorarse con el tiempo.  Las actualizaciones graduales se realizan en lotes, lo que garantiza que todas las instancias no estén inactivas al mismo tiempo.</t>
+          <t>La seguridad es la razón principal de las actualizaciones. Las garantías de seguridad de las instancias no deben deteriorarse con el tiempo.  Las actualizaciones sucesivas se realizan en lotes, lo que garantiza que todas las instancias no estén inactivas al mismo tiempo.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1740,7 +1740,7 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Implemente automáticamente aplicaciones de máquina virtual desde Azure Compute Gallery definiendo las aplicaciones en el perfil.</t>
+          <t>(VMs, conjunto de escalado) Implemente automáticamente aplicaciones de máquina virtual desde Azure Compute Gallery definiendo las aplicaciones en el perfil.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
@@ -1806,7 +1806,7 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Supervise y mida el estado de las instancias de VM.  Implemente la extensión del agente Monitor en las máquinas virtuales para recopilar datos de supervisión del sistema operativo invitado con reglas de recopilación de datos específicas del sistema operativo.  Permita que VM Insights supervise el estado y el rendimiento, y vea las tendencias de los datos recopilados. Use los diagnósticos de arranque para obtener información a medida que arrancan las máquinas virtuales. Los diagnósticos de arranque también diagnostican errores de arranque.</t>
+          <t>(VMs, conjunto de escalado) Supervise y mida el estado de las instancias de VM.  Implemente la extensión del agente Monitor en las máquinas virtuales para recopilar datos de supervisión del sistema operativo invitado con reglas de recopilación de datos específicas del sistema operativo.  Habilite la información de la máquina virtual para supervisar el estado y el rendimiento, y para ver las tendencias de los datos recopilados. Use los diagnósticos de arranque para obtener información a medida que arrancan las máquinas virtuales. Los diagnósticos de arranque también diagnostican errores de arranque.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Elija SKU para máquinas virtuales que se alineen con su planificación de capacidad. Comprenda bien los requisitos de su carga de trabajo, incluido el número de núcleos, la memoria, el almacenamiento y el ancho de banda de red para que pueda filtrar las SKU inadecuadas.</t>
+          <t>(VMs, conjunto de escalado) Elija SKU para máquinas virtuales que se alineen con su planificación de capacidad. Comprenda bien los requisitos de la carga de trabajo, incluido el número de núcleos, la memoria, el almacenamiento y el ancho de banda de red para poder filtrar las SKU inadecuadas.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>El tamaño correcto de las máquinas virtuales es una decisión fundamental que afecta significativamente al rendimiento de la carga de trabajo. Sin el conjunto adecuado de máquinas virtuales, es posible que experimente problemas de rendimiento y acumule costos innecesarios.</t>
+          <t>El redimensionamiento de las máquinas virtuales es una decisión fundamental que afecta significativamente al rendimiento de la carga de trabajo. Sin el conjunto adecuado de máquinas virtuales, es posible que experimente problemas de rendimiento y acumule costos innecesarios.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1872,7 +1872,7 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Implemente máquinas virtuales de carga de trabajo sensibles a la latencia en grupos con ubicación de proximidad.</t>
+          <t>(VMs, conjunto de escalado) Implemente máquinas virtuales de carga de trabajo sensibles a la latencia en grupos de selección de ubicación por proximidad.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado)  Establezca el perfil de almacenamiento analizando el rendimiento del disco de las cargas de trabajo existentes y la SKU de la máquina virtual.  Use SSD prémium para máquinas virtuales de producción. Ajuste el rendimiento de los discos con SSD prémium v2. Utilice dispositivos NVMe conectados localmente.</t>
+          <t>(VMs, conjunto de escalado)  Establezca el perfil de almacenamiento analizando el rendimiento del disco de las cargas de trabajo existentes y la SKU de la máquina virtual.  Use SSD prémium para las máquinas virtuales de producción. Ajuste el rendimiento de los discos con SSD prémium v2. Utilice dispositivos NVMe conectados localmente.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Las SSD prémium ofrecen máquinas virtuales compatibles con discos de alto rendimiento y baja latencia con cargas de trabajo intensivas en E/S.  SSD prémium v2 no requiere cambiar el tamaño del disco, lo que permite un alto rendimiento sin un sobreaprovisionamiento excesivo y minimiza el costo de la capacidad no utilizada.  Cuando están disponibles en SKU de máquina virtual, NVMe conectado localmente o dispositivos similares pueden ofrecer un alto rendimiento, especialmente para casos de uso que requieren altas operaciones de entrada/salida por segundo (IOPS) y baja latencia.</t>
+          <t>Las SSD prémium ofrecen máquinas virtuales compatibles con discos de alto rendimiento y baja latencia con cargas de trabajo intensivas de E/S.  Premium SSD v2 no requiere cambiar el tamaño del disco, lo que permite un alto rendimiento sin un sobreaprovisionamiento excesivo y minimiza el costo de la capacidad no utilizada.  Cuando están disponibles en SKU de máquina virtual, NVMe conectado localmente o dispositivos similares pueden ofrecer un alto rendimiento, especialmente para casos de uso que requieren operaciones de entrada/salida por segundo (IOPS) altas y baja latencia.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Permite la virtualización de E/S de raíz única (SR-IOV) en una máquina virtual, lo que mejora en gran medida su rendimiento de red.</t>
+          <t>Permite la virtualización de E/S de raíz única (SR-IOV) en una máquina virtual, lo que mejora en gran medida el rendimiento de su red.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Establezca reglas de escalado automático para aumentar o disminuir el número de instancias de VM en el conjunto de escalado en función de la demanda.</t>
+          <t>(VMs, conjunto de escalado) Establezca reglas de escalado automático para aumentar o disminuir el número de instancias de máquina virtual del conjunto de escalado en función de la demanda.</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Si aumenta la demanda de la aplicación, aumenta la carga de las instancias de máquina virtual del conjunto de escalado. Las reglas de escalado automático garantizan que tenga suficientes recursos para satisfacer la demanda.</t>
+          <t>Si aumenta la demanda de la aplicación, aumenta la carga en las instancias de máquina virtual del conjunto de escalado. Las reglas de escalado automático garantizan que tenga suficientes recursos para satisfacer la demanda.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
